--- a/Feature-Analysis/Resize Feature/s_22_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_22_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.50696759264</v>
+        <v>738157.50696759264</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.50765046291</v>
+        <v>738157.50765046291</v>
       </c>
       <c r="C3" s="0">
         <v>58.999991789460182</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.50799768523</v>
+        <v>738157.50799768523</v>
       </c>
       <c r="C4" s="0">
         <v>89.000000059604645</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.50835648144</v>
+        <v>738157.50835648144</v>
       </c>
       <c r="C5" s="0">
         <v>119.99999284744263</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.50869212963</v>
+        <v>738157.50869212963</v>
       </c>
       <c r="C6" s="0">
         <v>148.99999648332596</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.50903935183</v>
+        <v>738157.50903935183</v>
       </c>
       <c r="C7" s="0">
         <v>178.99999469518661</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.50937500002</v>
+        <v>738157.50937500002</v>
       </c>
       <c r="C8" s="0">
         <v>207.99999833106995</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.50975694449</v>
+        <v>738157.50975694449</v>
       </c>
       <c r="C9" s="0">
         <v>241.00000038743019</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.51009259257</v>
+        <v>738157.51009259257</v>
       </c>
       <c r="C10" s="0">
         <v>269.99999396502972</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.51041666663</v>
+        <v>738157.51041666663</v>
       </c>
       <c r="C11" s="0">
         <v>297.99999296665192</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.51077546296</v>
+        <v>738157.51077546296</v>
       </c>
       <c r="C12" s="0">
         <v>328.9999958127737</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.51112268516</v>
+        <v>738157.51112268516</v>
       </c>
       <c r="C13" s="0">
         <v>358.99999402463436</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.51149305562</v>
+        <v>738157.51149305562</v>
       </c>
       <c r="C14" s="0">
         <v>391.00000150501728</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.51181712968</v>
+        <v>738157.51181712968</v>
       </c>
       <c r="C15" s="0">
         <v>419.00000050663948</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.51215277775</v>
+        <v>738157.51215277775</v>
       </c>
       <c r="C16" s="0">
         <v>447.99999408423901</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.51249999995</v>
+        <v>738157.51249999995</v>
       </c>
       <c r="C17" s="0">
         <v>477.99999229609966</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.51284722227</v>
+        <v>738157.51284722227</v>
       </c>
       <c r="C18" s="0">
         <v>508.00000056624413</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.51320601848</v>
+        <v>738157.51320601848</v>
       </c>
       <c r="C19" s="0">
         <v>538.99999335408211</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.51355324069</v>
+        <v>738157.51355324069</v>
       </c>
       <c r="C20" s="0">
         <v>568.99999156594276</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.51391203701</v>
+        <v>738157.51391203701</v>
       </c>
       <c r="C21" s="0">
         <v>599.99999441206455</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.51458333328</v>
+        <v>738157.51458333328</v>
       </c>
       <c r="C22" s="0">
         <v>657.99999162554741</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.5149305556</v>
+        <v>738157.5149305556</v>
       </c>
       <c r="C23" s="0">
         <v>687.99999989569187</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.5152777778</v>
+        <v>738157.5152777778</v>
       </c>
       <c r="C24" s="0">
         <v>717.99999810755253</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.51568287041</v>
+        <v>738157.51568287041</v>
       </c>
       <c r="C25" s="0">
         <v>752.99999937415123</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.51599537034</v>
+        <v>738157.51599537034</v>
       </c>
       <c r="C26" s="0">
         <v>779.9999937415123</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.51633101853</v>
+        <v>738157.51633101853</v>
       </c>
       <c r="C27" s="0">
         <v>808.99999737739563</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.51668981486</v>
+        <v>738157.51668981486</v>
       </c>
       <c r="C28" s="0">
         <v>840.00000022351742</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.51702546293</v>
+        <v>738157.51702546293</v>
       </c>
       <c r="C29" s="0">
         <v>868.99999380111694</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.51737268514</v>
+        <v>738157.51737268514</v>
       </c>
       <c r="C30" s="0">
         <v>898.9999920129776</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.51771990745</v>
+        <v>738157.51771990745</v>
       </c>
       <c r="C31" s="0">
         <v>929.00000028312206</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.51805555553</v>
+        <v>738157.51805555553</v>
       </c>
       <c r="C32" s="0">
         <v>957.99999386072159</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.51841435186</v>
+        <v>738157.51841435186</v>
       </c>
       <c r="C33" s="0">
         <v>988.99999670684338</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.51876157406</v>
+        <v>738157.51876157406</v>
       </c>
       <c r="C34" s="0">
         <v>1018.999994918704</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.51912037039</v>
+        <v>738157.51912037039</v>
       </c>
       <c r="C35" s="0">
         <v>1049.9999977648258</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.51945601846</v>
+        <v>738157.51945601846</v>
       </c>
       <c r="C36" s="0">
         <v>1078.9999913424253</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.51984953706</v>
+        <v>738157.51984953706</v>
       </c>
       <c r="C37" s="0">
         <v>1112.9999980330467</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.52016203699</v>
+        <v>738157.52016203699</v>
       </c>
       <c r="C38" s="0">
         <v>1139.9999924004078</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.52049768518</v>
+        <v>738157.52049768518</v>
       </c>
       <c r="C39" s="0">
         <v>1168.9999960362911</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.52085648151</v>
+        <v>738157.52085648151</v>
       </c>
       <c r="C40" s="0">
         <v>1199.9999988824129</v>
